--- a/data/trans_orig/P34B03-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Dificultad-trans_orig.xlsx
@@ -642,7 +642,7 @@
         <v>0.6015044362966613</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.63183969693555</v>
+        <v>0.6318396969355501</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2500600923277582</v>
@@ -651,7 +651,7 @@
         <v>0.3274716074847719</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2375370736815726</v>
+        <v>0.2375370736815725</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.4268369299188395</v>
@@ -660,7 +660,7 @@
         <v>0.4569378955756787</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4128693008015589</v>
+        <v>0.412869300801559</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5162751042643215</v>
+        <v>0.5124406383620492</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5186414686721438</v>
+        <v>0.5085092015726512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4883093978270587</v>
+        <v>0.5036643800187189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1972250788506646</v>
+        <v>0.1948608442237655</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2685670430727428</v>
+        <v>0.2744883232285079</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.172873222423597</v>
+        <v>0.1679805905002705</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3716427471588668</v>
+        <v>0.3770841631343984</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4052855412209059</v>
+        <v>0.4029189245630581</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3404263863800275</v>
+        <v>0.330527076782109</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7286143208697518</v>
+        <v>0.7193277338607144</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7050662569646309</v>
+        <v>0.6925124263700135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7986581299571751</v>
+        <v>0.7953865022617671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3180509838350613</v>
+        <v>0.3169891543335582</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3919042431275022</v>
+        <v>0.3974204329581514</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3332248558263781</v>
+        <v>0.3194817629738508</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4934457885992958</v>
+        <v>0.4918305263023446</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5158264351797738</v>
+        <v>0.5109963530557324</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5063769462453297</v>
+        <v>0.4966305225832208</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.913080411826617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7582218799138887</v>
+        <v>0.7582218799138885</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2255300848648191</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5874051864000018</v>
+        <v>0.5807610468568302</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.796179950769344</v>
+        <v>0.7985804528916355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6324079490824071</v>
+        <v>0.6380799957181741</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1767739862646126</v>
+        <v>0.1771890988039509</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4251760186451509</v>
+        <v>0.4266047129759812</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2452852597251491</v>
+        <v>0.2393447173844216</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3843382730172777</v>
+        <v>0.383768009005962</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6321547325191155</v>
+        <v>0.632212619520039</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4425972742186579</v>
+        <v>0.4403386970775823</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8019133273907971</v>
+        <v>0.7983239605907518</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.036468739724912</v>
+        <v>1.046601575228039</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9173200571739063</v>
+        <v>0.8899901580078223</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2846534585966881</v>
+        <v>0.2850934627098793</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6007418628304277</v>
+        <v>0.6035261839832481</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3578358946305005</v>
+        <v>0.3513603672538064</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5023825402387395</v>
+        <v>0.5026622686236716</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7798856182981899</v>
+        <v>0.783147144799173</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5782569905262778</v>
+        <v>0.5825297070305304</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.970327193391435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8848694436930761</v>
+        <v>0.8848694436930762</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.4071600070207494</v>
@@ -869,7 +869,7 @@
         <v>0.5350394544934243</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.5113787045909933</v>
+        <v>0.5113787045909934</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6325865928751334</v>
@@ -878,7 +878,7 @@
         <v>0.7598753432645305</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6980755833997978</v>
+        <v>0.6980755833997979</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7359973680599184</v>
+        <v>0.7410736166610482</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8578619684894457</v>
+        <v>0.8529590525073655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7581532032266421</v>
+        <v>0.7718204950740848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3290307113895232</v>
+        <v>0.3299513363606369</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4409146837567147</v>
+        <v>0.4369675707890391</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4423963661927028</v>
+        <v>0.4338476069526833</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5578026449897826</v>
+        <v>0.5644676018092122</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.68487592169582</v>
+        <v>0.6777365847784956</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6241519875960077</v>
+        <v>0.6220546251322893</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9782208683610806</v>
+        <v>0.9769564104879487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.105829175176057</v>
+        <v>1.094465772988932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.003671352880151</v>
+        <v>1.015516269761404</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.494680190991584</v>
+        <v>0.4977000198177445</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6466105690963078</v>
+        <v>0.6336329366144051</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5889918551038617</v>
+        <v>0.5901848217014826</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7027155883447644</v>
+        <v>0.7082339429672613</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8552375307298585</v>
+        <v>0.8389775012354016</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7729345836092419</v>
+        <v>0.7745786715101926</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8709043389441194</v>
+        <v>0.8666515691556461</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.033488142337901</v>
+        <v>1.037405202125871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8985466869177637</v>
+        <v>0.893369751025398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3911734902354675</v>
+        <v>0.4010407607347032</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5694125989688731</v>
+        <v>0.559148148445456</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5035501306750833</v>
+        <v>0.5015159116354941</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6796253008503264</v>
+        <v>0.6779923446229181</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8405126156500785</v>
+        <v>0.8382460641306732</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7363111210277515</v>
+        <v>0.7337920599775538</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.232723579358729</v>
+        <v>1.214457263344293</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.395867083100908</v>
+        <v>1.404246952016802</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.170369463889932</v>
+        <v>1.178976710696973</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6659821841202794</v>
+        <v>0.6634029111133029</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8419554251836474</v>
+        <v>0.8365984581940294</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6967777375929044</v>
+        <v>0.6987130540406653</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9142776524398605</v>
+        <v>0.9074125404451546</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.069405323448366</v>
+        <v>1.069172069799352</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9047193340217163</v>
+        <v>0.9047809146431008</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.702652345840925</v>
+        <v>0.6971990934042211</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8065574278644512</v>
+        <v>0.8112863427761314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7787083421805775</v>
+        <v>0.782622637912421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2835141312444476</v>
+        <v>0.2826511988902414</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.433587887133309</v>
+        <v>0.4320062657848451</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3830389453309991</v>
+        <v>0.3795649296434522</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5002075460520188</v>
+        <v>0.5010097303607974</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6308729078247222</v>
+        <v>0.6282735303071947</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5925335261439755</v>
+        <v>0.5920413159189308</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8229976279744343</v>
+        <v>0.8181962181622049</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9300248682477759</v>
+        <v>0.9324036417890726</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9214065566332927</v>
+        <v>0.9240578806722987</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3569621618586293</v>
+        <v>0.3555358836960444</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5266604749870006</v>
+        <v>0.5201889862222754</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4589712188631976</v>
+        <v>0.4593781835455409</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5703796474231045</v>
+        <v>0.5705979691379195</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7061005841511342</v>
+        <v>0.7065911663431202</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6700304266830919</v>
+        <v>0.6714090906188537</v>
       </c>
     </row>
     <row r="19">
